--- a/src/WEIN Formula Neo-series/Season 1.xlsx
+++ b/src/WEIN Formula Neo-series/Season 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\WEIN-Hub\Formula Python\src\WEIN Formula Neo-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F41CBE-4292-467D-A86E-A74881CC17CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68C106-BAC8-4B4D-BB7E-67CED061C94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2233,13 +2233,13 @@
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="2">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="2">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/WEIN Formula Neo-series/Season 1.xlsx
+++ b/src/WEIN Formula Neo-series/Season 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\WEIN-Hub\Formula Python\src\WEIN Formula Neo-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68C106-BAC8-4B4D-BB7E-67CED061C94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8D1E8-AB66-42AB-9EEC-A2382B1E5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>DRIVER</t>
   </si>
@@ -257,6 +257,20 @@
   </si>
   <si>
     <t>SUI</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>P F</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1003,22 +1017,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1046,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" s="2">
         <v>0</v>
@@ -1060,22 +1076,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10">
         <v>37</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="10">
-        <v>18</v>
-      </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1100,7 +1118,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
         <v>1</v>
@@ -1117,22 +1135,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="10">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1163,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="AH4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,22 +1194,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="E5" s="10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1217,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="2">
         <v>0</v>
@@ -1231,22 +1253,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1274,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="AG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="2">
         <v>0</v>
@@ -1297,13 +1321,15 @@
         <v>50</v>
       </c>
       <c r="E7" s="10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="4">
         <v>6</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4">
+        <v>7</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1345,22 +1371,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="4">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1402,22 +1430,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="4">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1448,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="2">
         <v>0</v>
@@ -1459,22 +1489,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="4">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1508,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1516,22 +1548,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1579,16 +1613,18 @@
         <v>56</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="3">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1630,22 +1666,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="3">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1687,22 +1725,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="3">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1744,22 +1784,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="3">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1801,22 +1843,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="3">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1858,22 +1902,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="3">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1915,22 +1961,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="2"/>
+      <c r="G18" s="3">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1964,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1987,7 +2035,9 @@
       <c r="G19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2062,8 +2112,8 @@
       <c r="AI20" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:AI19">
-    <sortCondition ref="G12:G19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AI20">
+    <sortCondition descending="1" ref="E2:E20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2203,7 +2253,9 @@
       <c r="D2" s="10">
         <v>35</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10">
+        <v>12</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2228,8 +2280,8 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="32">
-        <f t="shared" ref="AC2:AC10" si="0">SUM(D2:AB2)</f>
-        <v>35</v>
+        <f>SUM(D2:AB2)</f>
+        <v>47</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="2">
@@ -2250,15 +2302,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="10">
-        <v>26</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="10">
+        <v>25</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -2283,8 +2337,8 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="32">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(D3:AB3)</f>
+        <v>46</v>
       </c>
       <c r="AD3" s="9"/>
       <c r="AE3" s="2">
@@ -2305,15 +2359,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="10">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="10">
+        <v>14</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2338,8 +2394,8 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="32">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>SUM(D4:AB4)</f>
+        <v>40</v>
       </c>
       <c r="AD4" s="9"/>
       <c r="AE4" s="2">
@@ -2360,15 +2416,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="10">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>19</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2393,8 +2451,8 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="32">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>SUM(D5:AB5)</f>
+        <v>23</v>
       </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="2">
@@ -2417,13 +2475,15 @@
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>38</v>
+      <c r="C6" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>15</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -2448,8 +2508,8 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="32">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(D6:AB6)</f>
+        <v>15</v>
       </c>
       <c r="AD6" s="9"/>
       <c r="AE6" s="2">
@@ -2470,15 +2530,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="10">
-        <v>2</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>12</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2503,8 +2565,8 @@
       <c r="AA7" s="10"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="32">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(D7:AB7)</f>
+        <v>13</v>
       </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="2">
@@ -2517,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2525,15 +2587,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2558,8 +2622,8 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(D8:AB8)</f>
+        <v>12</v>
       </c>
       <c r="AD8" s="9"/>
       <c r="AE8" s="2">
@@ -2572,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2580,15 +2644,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2613,8 +2679,8 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D9:AB9)</f>
+        <v>6</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="2">
@@ -2635,15 +2701,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2668,7 +2736,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="32">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:AB10)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="9"/>

--- a/src/WEIN Formula Neo-series/Season 1.xlsx
+++ b/src/WEIN Formula Neo-series/Season 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\WEIN-Hub\Formula Python\src\WEIN Formula Neo-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8D1E8-AB66-42AB-9EEC-A2382B1E5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823F14A-8D47-4454-A5FB-43B53F4D23FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>DRIVER</t>
   </si>
@@ -272,12 +272,46 @@
       <t>P F</t>
     </r>
   </si>
+  <si>
+    <t>MasterCard Renault F1 Team</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>Ret.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t xml:space="preserve"> F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ret.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t xml:space="preserve"> P</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +411,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Formula1 Display-Regular"/>
     </font>
@@ -506,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,6 +643,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13925CBA-948C-432E-A649-4C405D91FBC6}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,25 +1077,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="10">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="7">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1059,10 +1121,10 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="9"/>
       <c r="AF2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="2">
         <v>0</v>
@@ -1076,25 +1138,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1121,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="AG3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="2">
         <v>0</v>
@@ -1135,25 +1199,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1183,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="AH4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1194,25 +1260,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="10">
         <v>27</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10">
-        <v>22</v>
-      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1253,25 +1321,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="10">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="3">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2"/>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1301,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="AH6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,25 +1382,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="4">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
         <v>7</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1357,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="2">
         <v>0</v>
@@ -1371,25 +1443,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="10">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1416,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="2">
         <v>0</v>
@@ -1430,25 +1504,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1498,7 +1574,7 @@
         <v>42</v>
       </c>
       <c r="E10" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="3" t="s">
@@ -1507,7 +1583,9 @@
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1548,25 +1626,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E11" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="4">
-        <v>7</v>
-      </c>
-      <c r="H11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1607,25 +1687,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="4">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1655,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1666,25 +1748,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="G13" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1725,25 +1809,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="3">
-        <v>16</v>
+      <c r="G14" s="4">
+        <v>10</v>
       </c>
       <c r="H14" s="4">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1790,19 +1876,21 @@
         <v>56</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
+        <v>9</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1843,25 +1931,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="3">
-        <v>14</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1911,7 +2001,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="3">
@@ -1920,7 +2010,9 @@
       <c r="H17" s="3">
         <v>11</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="4">
+        <v>10</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1961,25 +2053,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="3">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2020,25 +2114,27 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="30" t="s">
-        <v>64</v>
+      <c r="G19" s="3">
+        <v>17</v>
       </c>
       <c r="H19" s="3">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I19" s="3">
+        <v>12</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2074,46 +2170,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="9"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AI20">
-    <sortCondition descending="1" ref="E2:E20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AI22">
+    <sortCondition descending="1" ref="E1:E22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2122,7 +2320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69710D40-8BD0-49CF-9BA6-015D32425DEF}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2250,13 +2448,15 @@
       <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="35">
         <v>35</v>
       </c>
       <c r="E2" s="10">
         <v>12</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="35">
+        <v>25</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2281,7 +2481,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="32">
         <f>SUM(D2:AB2)</f>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="2">
@@ -2307,13 +2507,15 @@
       <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="37">
         <v>21</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="35">
         <v>25</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="37">
+        <v>18</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -2338,14 +2540,14 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="32">
         <f>SUM(D3:AB3)</f>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="AD3" s="9"/>
       <c r="AE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -2364,13 +2566,15 @@
       <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="36">
         <v>26</v>
       </c>
       <c r="E4" s="10">
         <v>14</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2405,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="AG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2418,16 +2622,18 @@
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>38</v>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>15</v>
+      </c>
+      <c r="F5" s="36">
+        <v>22</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2452,14 +2658,14 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="32">
         <f>SUM(D5:AB5)</f>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="2">
         <v>0</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="2">
         <v>0</v>
@@ -2475,16 +2681,18 @@
       <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>61</v>
+      <c r="C6" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>15</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="36">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2509,14 +2717,14 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="32">
         <f>SUM(D6:AB6)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="AD6" s="9"/>
       <c r="AE6" s="2">
         <v>0</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="2">
         <v>0</v>
@@ -2541,7 +2749,9 @@
       <c r="E7" s="10">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>10</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2566,7 +2776,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="32">
         <f>SUM(D7:AB7)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="2">
@@ -2587,18 +2797,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
+        <v>15</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2623,7 +2835,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="32">
         <f>SUM(D8:AB8)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD8" s="9"/>
       <c r="AE8" s="2">
@@ -2644,18 +2856,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2680,7 +2894,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="32">
         <f>SUM(D9:AB9)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="2">
@@ -2712,7 +2926,9 @@
       <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2737,7 +2953,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="32">
         <f>SUM(D10:AB10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="9"/>
       <c r="AE10" s="2">
@@ -2753,45 +2969,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
+    <row r="11" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="8"/>
+      <c r="AC11" s="32">
+        <f>SUM(D11:AB11)</f>
+        <v>0</v>
+      </c>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AH11">
-    <sortCondition descending="1" ref="AC2:AC11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AH12">
+    <sortCondition descending="1" ref="AC2:AC12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/WEIN Formula Neo-series/Season 1.xlsx
+++ b/src/WEIN Formula Neo-series/Season 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\WEIN-Hub\Formula Python\src\WEIN Formula Neo-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6823F14A-8D47-4454-A5FB-43B53F4D23FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D73572C-D578-4C97-B5F6-E20D27046A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>DRIVER</t>
   </si>
@@ -273,12 +273,6 @@
     </r>
   </si>
   <si>
-    <t>MasterCard Renault F1 Team</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <r>
       <t>Ret.</t>
     </r>
@@ -311,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,11 +406,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Formula1 Display-Regular"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
       <name val="Formula1 Display-Regular"/>
     </font>
     <font>
@@ -551,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,12 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13925CBA-948C-432E-A649-4C405D91FBC6}">
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1523,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1706,7 +1689,7 @@
         <v>64</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2170,148 +2153,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
       <c r="AE20" s="9"/>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AI22">
-    <sortCondition descending="1" ref="E1:E22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AI20">
+    <sortCondition descending="1" ref="E1:E20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2320,7 +2201,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69710D40-8BD0-49CF-9BA6-015D32425DEF}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,13 +2329,13 @@
       <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>35</v>
       </c>
       <c r="E2" s="10">
         <v>12</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="33">
         <v>25</v>
       </c>
       <c r="G2" s="10"/>
@@ -2480,7 +2361,7 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="32">
-        <f>SUM(D2:AB2)</f>
+        <f t="shared" ref="AC2:AC10" si="0">SUM(D2:AB2)</f>
         <v>72</v>
       </c>
       <c r="AD2" s="9"/>
@@ -2507,13 +2388,13 @@
       <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>21</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>25</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <v>18</v>
       </c>
       <c r="G3" s="10"/>
@@ -2539,7 +2420,7 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="9"/>
       <c r="AC3" s="32">
-        <f>SUM(D3:AB3)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="AD3" s="9"/>
@@ -2566,7 +2447,7 @@
       <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>26</v>
       </c>
       <c r="E4" s="10">
@@ -2598,7 +2479,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="32">
-        <f>SUM(D4:AB4)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="AD4" s="9"/>
@@ -2628,10 +2509,10 @@
       <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <v>15</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>22</v>
       </c>
       <c r="G5" s="10"/>
@@ -2657,7 +2538,7 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="32">
-        <f>SUM(D5:AB5)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="AD5" s="9"/>
@@ -2687,7 +2568,7 @@
       <c r="D6" s="10">
         <v>4</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>19</v>
       </c>
       <c r="F6" s="10">
@@ -2716,7 +2597,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="32">
-        <f>SUM(D6:AB6)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AD6" s="9"/>
@@ -2775,7 +2656,7 @@
       <c r="AA7" s="10"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="32">
-        <f>SUM(D7:AB7)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="AD7" s="9"/>
@@ -2834,7 +2715,7 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="32">
-        <f>SUM(D8:AB8)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AD8" s="9"/>
@@ -2893,7 +2774,7 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="32">
-        <f>SUM(D9:AB9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AD9" s="9"/>
@@ -2952,7 +2833,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="32">
-        <f>SUM(D10:AB10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AD10" s="9"/>
@@ -2969,104 +2850,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
+    <row r="11" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="32">
-        <f>SUM(D11:AB11)</f>
-        <v>0</v>
-      </c>
+      <c r="AC11" s="8"/>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AH12">
-    <sortCondition descending="1" ref="AC2:AC12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AH11">
+    <sortCondition descending="1" ref="AC2:AC11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/WEIN Formula Neo-series/Season 1.xlsx
+++ b/src/WEIN Formula Neo-series/Season 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\WEIN-Hub\Formula Python\src\WEIN Formula Neo-series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D73572C-D578-4C97-B5F6-E20D27046A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDE086A-F799-46D7-BA5B-C1D622E1630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
